--- a/Excel de graficos.xlsx
+++ b/Excel de graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\UVG\2019\DS\Proyecto2_Datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE69F4CC-65B7-453D-9ED4-13562C2C20F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFAEEFB-6B69-4458-B901-4F6E0393C717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16545" yWindow="1830" windowWidth="27660" windowHeight="14625" xr2:uid="{A5FBCD6D-97FA-4D1B-95BF-26FBC551C1E5}"/>
+    <workbookView xWindow="-10215" yWindow="120" windowWidth="27660" windowHeight="14625" xr2:uid="{A5FBCD6D-97FA-4D1B-95BF-26FBC551C1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Pagina Derecha</t>
   </si>
@@ -61,6 +61,105 @@
   </si>
   <si>
     <t>Super oferta</t>
+  </si>
+  <si>
+    <t>Agotamiento</t>
+  </si>
+  <si>
+    <t>Demo de linea</t>
+  </si>
+  <si>
+    <t>Demo nuevo</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Paquetes</t>
+  </si>
+  <si>
+    <t>Apertura</t>
+  </si>
+  <si>
+    <t>Cierre</t>
+  </si>
+  <si>
+    <t>Oferta escencial</t>
+  </si>
+  <si>
+    <t>Oferta especial</t>
+  </si>
+  <si>
+    <t>Oferta espectacular</t>
+  </si>
+  <si>
+    <t>Oferta extraordinaria</t>
+  </si>
+  <si>
+    <t>Oferta sale</t>
+  </si>
+  <si>
+    <t>Zona de ahorro</t>
+  </si>
+  <si>
+    <t>1 x 2 x</t>
+  </si>
+  <si>
+    <t>1 x 3 x</t>
+  </si>
+  <si>
+    <t>1 x 4 x</t>
+  </si>
+  <si>
+    <t>2 x 2 x</t>
+  </si>
+  <si>
+    <t>2 x 3 x</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Contingencia</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>% Descuento</t>
+  </si>
+  <si>
+    <t>Producto gratis</t>
+  </si>
+  <si>
+    <t>Promocion precio</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Contra portada</t>
+  </si>
+  <si>
+    <t>Flap entrada</t>
+  </si>
+  <si>
+    <t>Flap salida</t>
+  </si>
+  <si>
+    <t>Pagina perfumada</t>
+  </si>
+  <si>
+    <t>Portada</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Separador</t>
+  </si>
+  <si>
+    <t>Sobre portada</t>
   </si>
 </sst>
 </file>
@@ -211,9 +310,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$2:$G$2</c:f>
+              <c:f>Sheet1!$D$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Full Spread</c:v>
                 </c:pt>
@@ -222,30 +321,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pagina Izquierda</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NAs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$G$3</c:f>
+              <c:f>Sheet1!$D$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15033898</c:v>
+                  <c:v>8315716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15025601</c:v>
+                  <c:v>3851285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15025527</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2866897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,6 +959,1560 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unidades</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vendidas por Atributo Neto </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Agotamiento</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Demo de linea</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Demo nuevo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>No aplica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Paquetes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NAs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>189835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7024861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7580492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF76-42F9-8B40-2967C493CD2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="580889848"/>
+        <c:axId val="580897528"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="580889848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580897528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580897528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580889848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unidades vendidas por Energy Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$22:$U$22</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Apertura</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oferta escencial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oferta especial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Oferta espectacular</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oferta extraordinaria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oferta sale</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Zona de ahorro</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NAs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1719111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2587750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>394461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9669531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F71-4698-90FD-5960BB97C93E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="575525264"/>
+        <c:axId val="575525584"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="575525264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575525584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575525584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575525264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unidades</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vendidas por Promocion</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$M$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1 x 2 x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 x 3 x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 x 4 x</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 x 2 x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 x 3 x</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Combo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Contingencia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Duo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>% Descuento</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Producto gratis</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Promocion precio</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$45:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1917786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>483355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>855788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>959358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9030582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>759896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAD8-4996-A266-5161061A3544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="580894008"/>
+        <c:axId val="580895288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="580894008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580895288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580895288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unidades</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Vendidas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580894008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unidades  vedidas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por Recursos Especiales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Contra portada</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flap entrada</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flap salida</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pagina perfumada</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Portada</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Poster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Separador</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sobre portada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>432698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>482319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13783136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B65-4DCD-86AF-63259B4F2D05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="735045328"/>
+        <c:axId val="735048848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="735045328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735048848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="735048848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unidades</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Vendidas</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735045328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -946,6 +2593,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1452,6 +3259,2004 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2025,6 +5830,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>494861</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426982</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>131378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944BB71-A9E3-4AC3-9499-BBEC431F2F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155466</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>249621</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233BDE13-3B86-4FAA-9831-BC7E3D310655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>856156</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>51676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315311</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4B7D0A-A752-4FD2-98D4-0215CB696727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>297793</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>40727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162034</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>178237</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A89789-FE5B-48E2-9BCB-88050F2D9488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2330,22 +6279,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E25A09-7D38-4E60-A185-74F54E0E286D}">
-  <dimension ref="D2:P3"/>
+  <dimension ref="B2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="L62" sqref="L1:N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
@@ -2358,9 +6317,6 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
@@ -2382,16 +6338,13 @@
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3">
-        <v>15033898</v>
+        <v>8315716</v>
       </c>
       <c r="E3">
-        <v>15025601</v>
+        <v>3851285</v>
       </c>
       <c r="F3">
-        <v>15025527</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+        <v>2866897</v>
       </c>
       <c r="K3">
         <v>822447</v>
@@ -2410,6 +6363,234 @@
       </c>
       <c r="P3">
         <v>7031790</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>189835</v>
+      </c>
+      <c r="E23">
+        <v>36173</v>
+      </c>
+      <c r="F23">
+        <v>12583</v>
+      </c>
+      <c r="G23">
+        <v>7024861</v>
+      </c>
+      <c r="H23">
+        <v>189954</v>
+      </c>
+      <c r="I23">
+        <v>7580492</v>
+      </c>
+      <c r="M23">
+        <v>1719111</v>
+      </c>
+      <c r="N23">
+        <v>2587750</v>
+      </c>
+      <c r="O23">
+        <v>53630</v>
+      </c>
+      <c r="P23">
+        <v>5828</v>
+      </c>
+      <c r="Q23">
+        <v>230547</v>
+      </c>
+      <c r="R23">
+        <v>152164</v>
+      </c>
+      <c r="S23">
+        <v>220876</v>
+      </c>
+      <c r="T23">
+        <v>394461</v>
+      </c>
+      <c r="U23">
+        <v>9669531</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1917786</v>
+      </c>
+      <c r="C45">
+        <v>152019</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2570</v>
+      </c>
+      <c r="F45">
+        <v>4935</v>
+      </c>
+      <c r="G45">
+        <v>483355</v>
+      </c>
+      <c r="H45">
+        <v>510205</v>
+      </c>
+      <c r="I45">
+        <v>855788</v>
+      </c>
+      <c r="J45">
+        <v>357404</v>
+      </c>
+      <c r="K45">
+        <v>959358</v>
+      </c>
+      <c r="L45">
+        <v>9030582</v>
+      </c>
+      <c r="M45">
+        <v>759896</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>432698</v>
+      </c>
+      <c r="C67">
+        <v>71267</v>
+      </c>
+      <c r="D67">
+        <v>3294</v>
+      </c>
+      <c r="E67">
+        <v>141922</v>
+      </c>
+      <c r="F67">
+        <v>66905</v>
+      </c>
+      <c r="G67">
+        <v>33594</v>
+      </c>
+      <c r="H67">
+        <v>482319</v>
+      </c>
+      <c r="I67">
+        <v>18763</v>
+      </c>
+      <c r="J67">
+        <v>13783136</v>
       </c>
     </row>
   </sheetData>

--- a/Excel de graficos.xlsx
+++ b/Excel de graficos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\UVG\2019\DS\Proyecto2_Datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFAEEFB-6B69-4458-B901-4F6E0393C717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38567EB-44B2-4776-9CB5-A3152122ED7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10215" yWindow="120" windowWidth="27660" windowHeight="14625" xr2:uid="{A5FBCD6D-97FA-4D1B-95BF-26FBC551C1E5}"/>
+    <workbookView xWindow="1035" yWindow="1155" windowWidth="27660" windowHeight="14625" xr2:uid="{A5FBCD6D-97FA-4D1B-95BF-26FBC551C1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Pagina Derecha</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Pagina Izquierda</t>
-  </si>
-  <si>
-    <t>NAs</t>
   </si>
   <si>
     <t>Introduccion</t>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>Demo nuevo</t>
-  </si>
-  <si>
-    <t>No aplica</t>
   </si>
   <si>
     <t>Paquetes</t>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Promocion precio</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Contra portada</t>
@@ -1095,9 +1086,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$22:$I$22</c:f>
+              <c:f>Sheet1!$D$22:$G$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Agotamiento</c:v>
                 </c:pt>
@@ -1108,23 +1099,17 @@
                   <c:v>Demo nuevo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>No aplica</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Paquetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NAs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$I$23</c:f>
+              <c:f>Sheet1!$D$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>189835</c:v>
                 </c:pt>
@@ -1135,13 +1120,7 @@
                   <c:v>12583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7024861</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>189954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7580492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,9 +1429,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$22:$U$22</c:f>
+              <c:f>Sheet1!$M$22:$T$22</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Apertura</c:v>
                 </c:pt>
@@ -1476,19 +1455,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Zona de ahorro</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NAs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$23:$U$23</c:f>
+              <c:f>Sheet1!$M$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1719111</c:v>
                 </c:pt>
@@ -1512,9 +1488,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>394461</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9669531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,9 +1761,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$44:$M$44</c:f>
+              <c:f>Sheet1!$B$44:$L$44</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1 x 2 x</c:v>
                 </c:pt>
@@ -1823,19 +1796,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Promocion precio</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>NA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$45:$M$45</c:f>
+              <c:f>Sheet1!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1917786</c:v>
                 </c:pt>
@@ -1868,9 +1838,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9030582</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>759896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,9 +2174,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$66:$J$66</c:f>
+              <c:f>Sheet1!$B$66:$I$66</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Contra portada</c:v>
                 </c:pt>
@@ -2233,19 +2200,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sobre portada</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$J$67</c:f>
+              <c:f>Sheet1!$B$67:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>432698</c:v>
                 </c:pt>
@@ -2269,9 +2233,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18763</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13783136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6279,10 +6240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E25A09-7D38-4E60-A185-74F54E0E286D}">
-  <dimension ref="B2:U67"/>
+  <dimension ref="B2:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L62" sqref="L1:N62"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="87" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,22 +6279,22 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
@@ -6365,54 +6326,45 @@
         <v>7031790</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" t="s">
+      <c r="M22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="N22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>15</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>16</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>17</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>19</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>189835</v>
       </c>
@@ -6423,13 +6375,7 @@
         <v>12583</v>
       </c>
       <c r="G23">
-        <v>7024861</v>
-      </c>
-      <c r="H23">
         <v>189954</v>
-      </c>
-      <c r="I23">
-        <v>7580492</v>
       </c>
       <c r="M23">
         <v>1719111</v>
@@ -6455,49 +6401,43 @@
       <c r="T23">
         <v>394461</v>
       </c>
-      <c r="U23">
-        <v>9669531</v>
-      </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
         <v>23</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>25</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>27</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>29</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>30</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>31</v>
       </c>
-      <c r="K44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1917786</v>
       </c>
@@ -6531,40 +6471,34 @@
       <c r="L45">
         <v>9030582</v>
       </c>
-      <c r="M45">
-        <v>759896</v>
-      </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" t="s">
         <v>35</v>
       </c>
-      <c r="C66" t="s">
+      <c r="F66" t="s">
         <v>36</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>37</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>39</v>
       </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>432698</v>
       </c>
@@ -6588,9 +6522,6 @@
       </c>
       <c r="I67">
         <v>18763</v>
-      </c>
-      <c r="J67">
-        <v>13783136</v>
       </c>
     </row>
   </sheetData>
